--- a/FullStack268-S02.xlsx
+++ b/FullStack268-S02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACH-THU\Desktop\fullstack-268-S02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B941D7-8EB4-4AA6-97B3-981C4877E61E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC63FE5-6F26-4E31-86F8-27F638CD80B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="113">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -792,18 +792,6 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -816,7 +804,19 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,144 +1172,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="21" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="16" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1325,24 +1325,24 @@
       <c r="D9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
     </row>
     <row r="10" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1431,7 +1431,9 @@
       <c r="J11" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -1467,7 +1469,9 @@
       <c r="J12" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -1503,7 +1507,9 @@
       <c r="J13" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -1539,7 +1545,9 @@
       <c r="J14" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -1575,7 +1583,9 @@
       <c r="J15" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -1611,7 +1621,9 @@
       <c r="J16" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -1647,7 +1659,9 @@
       <c r="J17" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -1683,7 +1697,9 @@
       <c r="J18" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -1719,7 +1735,9 @@
       <c r="J19" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="7"/>
+      <c r="K19" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -1755,7 +1773,9 @@
       <c r="J20" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K20" s="7"/>
+      <c r="K20" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -1791,7 +1811,9 @@
       <c r="J21" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K21" s="7"/>
+      <c r="K21" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
@@ -1827,7 +1849,9 @@
       <c r="J22" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K22" s="7"/>
+      <c r="K22" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -1863,7 +1887,9 @@
       <c r="J23" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K23" s="7"/>
+      <c r="K23" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -1899,7 +1925,9 @@
       <c r="J24" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K24" s="7"/>
+      <c r="K24" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -1935,7 +1963,9 @@
       <c r="J25" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K25" s="7"/>
+      <c r="K25" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -1971,7 +2001,9 @@
       <c r="J26" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K26" s="7"/>
+      <c r="K26" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
@@ -2007,7 +2039,9 @@
       <c r="J27" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K27" s="7"/>
+      <c r="K27" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
@@ -2043,7 +2077,9 @@
       <c r="J28" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K28" s="7"/>
+      <c r="K28" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -2079,7 +2115,9 @@
       <c r="J29" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K29" s="7"/>
+      <c r="K29" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -2115,7 +2153,9 @@
       <c r="J30" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K30" s="7"/>
+      <c r="K30" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
@@ -2151,7 +2191,9 @@
       <c r="J31" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K31" s="7"/>
+      <c r="K31" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
@@ -2187,7 +2229,9 @@
       <c r="J32" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K32" s="7"/>
+      <c r="K32" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
@@ -2223,7 +2267,9 @@
       <c r="J33" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K33" s="7"/>
+      <c r="K33" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
@@ -2259,7 +2305,9 @@
       <c r="J34" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="K34" s="7"/>
+      <c r="K34" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
@@ -2295,7 +2343,9 @@
       <c r="J35" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K35" s="7"/>
+      <c r="K35" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
@@ -2331,7 +2381,9 @@
       <c r="J36" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K36" s="7"/>
+      <c r="K36" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
@@ -2367,7 +2419,9 @@
       <c r="J37" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K37" s="7"/>
+      <c r="K37" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
@@ -2403,7 +2457,9 @@
       <c r="J38" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K38" s="7"/>
+      <c r="K38" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
@@ -2439,7 +2495,9 @@
       <c r="J39" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K39" s="7"/>
+      <c r="K39" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -2475,7 +2533,9 @@
       <c r="J40" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K40" s="7"/>
+      <c r="K40" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
@@ -2511,7 +2571,9 @@
       <c r="J41" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K41" s="7"/>
+      <c r="K41" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
@@ -2547,7 +2609,9 @@
       <c r="J42" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K42" s="7"/>
+      <c r="K42" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
@@ -2583,7 +2647,9 @@
       <c r="J43" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K43" s="7"/>
+      <c r="K43" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
@@ -2619,7 +2685,9 @@
       <c r="J44" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K44" s="7"/>
+      <c r="K44" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
@@ -2655,7 +2723,9 @@
       <c r="J45" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K45" s="7"/>
+      <c r="K45" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
@@ -2691,7 +2761,9 @@
       <c r="J46" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K46" s="7"/>
+      <c r="K46" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
@@ -2727,7 +2799,9 @@
       <c r="J47" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="K47" s="7"/>
+      <c r="K47" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
@@ -2763,7 +2837,9 @@
       <c r="J48" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K48" s="7"/>
+      <c r="K48" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
@@ -2799,7 +2875,9 @@
       <c r="J49" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K49" s="7"/>
+      <c r="K49" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
@@ -2835,7 +2913,9 @@
       <c r="J50" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K50" s="7"/>
+      <c r="K50" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
@@ -2871,7 +2951,9 @@
       <c r="J51" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K51" s="7"/>
+      <c r="K51" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
@@ -2907,7 +2989,9 @@
       <c r="J52" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K52" s="7"/>
+      <c r="K52" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
@@ -2943,7 +3027,9 @@
       <c r="J53" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K53" s="7"/>
+      <c r="K53" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
@@ -2979,7 +3065,9 @@
       <c r="J54" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K54" s="7"/>
+      <c r="K54" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
@@ -3015,7 +3103,9 @@
       <c r="J55" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="K55" s="7"/>
+      <c r="K55" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
@@ -3027,36 +3117,36 @@
       <c r="T55" s="7"/>
     </row>
     <row r="56" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="15" t="s">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="15"/>
-      <c r="T56" s="15"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
     </row>
     <row r="57" spans="1:20" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
     </row>
     <row r="58" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C58" s="11" t="s">
@@ -3071,20 +3161,23 @@
       <c r="J58" s="10" t="s">
         <v>109</v>
       </c>
+      <c r="K58" s="10" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A56:D57"/>
+    <mergeCell ref="E9:T9"/>
+    <mergeCell ref="E56:T56"/>
+    <mergeCell ref="F4:T4"/>
+    <mergeCell ref="F6:T6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="A6:E7"/>
     <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A56:D57"/>
-    <mergeCell ref="E9:T9"/>
-    <mergeCell ref="E56:T56"/>
-    <mergeCell ref="F4:T4"/>
-    <mergeCell ref="F6:T6"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/FullStack268-S02.xlsx
+++ b/FullStack268-S02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACH-THU\Desktop\fullstack-268-S02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC63FE5-6F26-4E31-86F8-27F638CD80B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3B7B4A-CF90-4F15-8C97-73CDA941AD0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="113">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,7 +1434,9 @@
       <c r="K11" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1472,7 +1474,9 @@
       <c r="K12" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1510,7 +1514,9 @@
       <c r="K13" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1548,7 +1554,9 @@
       <c r="K14" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1586,7 +1594,9 @@
       <c r="K15" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1624,7 +1634,9 @@
       <c r="K16" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1662,7 +1674,9 @@
       <c r="K17" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1700,7 +1714,9 @@
       <c r="K18" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -1738,7 +1754,9 @@
       <c r="K19" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -1776,7 +1794,9 @@
       <c r="K20" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -1814,7 +1834,9 @@
       <c r="K21" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -1852,7 +1874,9 @@
       <c r="K22" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -1890,7 +1914,9 @@
       <c r="K23" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -1928,7 +1954,9 @@
       <c r="K24" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -1966,7 +1994,9 @@
       <c r="K25" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L25" s="7"/>
+      <c r="L25" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -2004,7 +2034,9 @@
       <c r="K26" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2042,7 +2074,9 @@
       <c r="K27" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -2080,7 +2114,9 @@
       <c r="K28" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L28" s="7"/>
+      <c r="L28" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2118,7 +2154,9 @@
       <c r="K29" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L29" s="7"/>
+      <c r="L29" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -2156,7 +2194,9 @@
       <c r="K30" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L30" s="7"/>
+      <c r="L30" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -2194,7 +2234,9 @@
       <c r="K31" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L31" s="7"/>
+      <c r="L31" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
@@ -2232,7 +2274,9 @@
       <c r="K32" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L32" s="7"/>
+      <c r="L32" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
@@ -2270,7 +2314,9 @@
       <c r="K33" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L33" s="7"/>
+      <c r="L33" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
@@ -2308,7 +2354,9 @@
       <c r="K34" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L34" s="7"/>
+      <c r="L34" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
@@ -2346,7 +2394,9 @@
       <c r="K35" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L35" s="7"/>
+      <c r="L35" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
@@ -2384,7 +2434,9 @@
       <c r="K36" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L36" s="7"/>
+      <c r="L36" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
@@ -2422,7 +2474,9 @@
       <c r="K37" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L37" s="7"/>
+      <c r="L37" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
@@ -2460,7 +2514,9 @@
       <c r="K38" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L38" s="7"/>
+      <c r="L38" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
@@ -2498,7 +2554,9 @@
       <c r="K39" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L39" s="7"/>
+      <c r="L39" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -2536,7 +2594,9 @@
       <c r="K40" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L40" s="7"/>
+      <c r="L40" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
@@ -2574,7 +2634,9 @@
       <c r="K41" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L41" s="7"/>
+      <c r="L41" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
@@ -2612,7 +2674,9 @@
       <c r="K42" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L42" s="7"/>
+      <c r="L42" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
@@ -2650,7 +2714,9 @@
       <c r="K43" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L43" s="7"/>
+      <c r="L43" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
@@ -2688,7 +2754,9 @@
       <c r="K44" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L44" s="7"/>
+      <c r="L44" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
@@ -2726,7 +2794,9 @@
       <c r="K45" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L45" s="7"/>
+      <c r="L45" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
@@ -2764,7 +2834,9 @@
       <c r="K46" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L46" s="7"/>
+      <c r="L46" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
@@ -2802,7 +2874,9 @@
       <c r="K47" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L47" s="7"/>
+      <c r="L47" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
@@ -2840,7 +2914,9 @@
       <c r="K48" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L48" s="7"/>
+      <c r="L48" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
@@ -2878,7 +2954,9 @@
       <c r="K49" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L49" s="7"/>
+      <c r="L49" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
@@ -2916,7 +2994,9 @@
       <c r="K50" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L50" s="7"/>
+      <c r="L50" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
@@ -2954,7 +3034,9 @@
       <c r="K51" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L51" s="7"/>
+      <c r="L51" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
@@ -2992,7 +3074,9 @@
       <c r="K52" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L52" s="7"/>
+      <c r="L52" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
@@ -3030,7 +3114,9 @@
       <c r="K53" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L53" s="7"/>
+      <c r="L53" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
@@ -3068,7 +3154,9 @@
       <c r="K54" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L54" s="7"/>
+      <c r="L54" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
@@ -3106,7 +3194,9 @@
       <c r="K55" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="L55" s="7"/>
+      <c r="L55" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
@@ -3164,6 +3254,10 @@
       <c r="K58" s="10" t="s">
         <v>109</v>
       </c>
+      <c r="L58" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M58" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/FullStack268-S02.xlsx
+++ b/FullStack268-S02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACH-THU\Desktop\fullstack-268-S02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3B7B4A-CF90-4F15-8C97-73CDA941AD0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084FBCCB-B665-4A61-885F-F8CECACC0567}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="113">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,7 +1437,9 @@
       <c r="L11" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="M11" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -1477,7 +1479,9 @@
       <c r="L12" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -1517,7 +1521,9 @@
       <c r="L13" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="M13" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -1557,7 +1563,9 @@
       <c r="L14" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -1597,7 +1605,9 @@
       <c r="L15" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -1637,7 +1647,9 @@
       <c r="L16" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -1677,7 +1689,9 @@
       <c r="L17" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -1717,7 +1731,9 @@
       <c r="L18" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -1757,7 +1773,9 @@
       <c r="L19" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="7"/>
+      <c r="M19" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -1797,7 +1815,9 @@
       <c r="L20" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M20" s="7"/>
+      <c r="M20" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -1837,7 +1857,9 @@
       <c r="L21" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M21" s="7"/>
+      <c r="M21" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -1877,7 +1899,9 @@
       <c r="L22" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M22" s="7"/>
+      <c r="M22" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -1917,7 +1941,9 @@
       <c r="L23" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M23" s="7"/>
+      <c r="M23" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -1957,7 +1983,9 @@
       <c r="L24" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="M24" s="7"/>
+      <c r="M24" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -1997,7 +2025,9 @@
       <c r="L25" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M25" s="7"/>
+      <c r="M25" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -2037,7 +2067,9 @@
       <c r="L26" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M26" s="7"/>
+      <c r="M26" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -2077,7 +2109,9 @@
       <c r="L27" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M27" s="7"/>
+      <c r="M27" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -2117,7 +2151,9 @@
       <c r="L28" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M28" s="7"/>
+      <c r="M28" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -2157,7 +2193,9 @@
       <c r="L29" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M29" s="7"/>
+      <c r="M29" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
@@ -2197,7 +2235,9 @@
       <c r="L30" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M30" s="7"/>
+      <c r="M30" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
@@ -2237,7 +2277,9 @@
       <c r="L31" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M31" s="7"/>
+      <c r="M31" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
@@ -2277,7 +2319,9 @@
       <c r="L32" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M32" s="7"/>
+      <c r="M32" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
@@ -2317,7 +2361,9 @@
       <c r="L33" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M33" s="7"/>
+      <c r="M33" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
@@ -2357,7 +2403,9 @@
       <c r="L34" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M34" s="7"/>
+      <c r="M34" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
@@ -2397,7 +2445,9 @@
       <c r="L35" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M35" s="7"/>
+      <c r="M35" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
@@ -2437,7 +2487,9 @@
       <c r="L36" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M36" s="7"/>
+      <c r="M36" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
@@ -2477,7 +2529,9 @@
       <c r="L37" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M37" s="7"/>
+      <c r="M37" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
@@ -2517,7 +2571,9 @@
       <c r="L38" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M38" s="7"/>
+      <c r="M38" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
@@ -2557,7 +2613,9 @@
       <c r="L39" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M39" s="7"/>
+      <c r="M39" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
@@ -2597,7 +2655,9 @@
       <c r="L40" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M40" s="7"/>
+      <c r="M40" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
@@ -2637,7 +2697,9 @@
       <c r="L41" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M41" s="7"/>
+      <c r="M41" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
@@ -2677,7 +2739,9 @@
       <c r="L42" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M42" s="7"/>
+      <c r="M42" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
@@ -2717,7 +2781,9 @@
       <c r="L43" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M43" s="7"/>
+      <c r="M43" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
@@ -2757,7 +2823,9 @@
       <c r="L44" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M44" s="7"/>
+      <c r="M44" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
@@ -2797,7 +2865,9 @@
       <c r="L45" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M45" s="7"/>
+      <c r="M45" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
@@ -2837,7 +2907,9 @@
       <c r="L46" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M46" s="7"/>
+      <c r="M46" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
@@ -2877,7 +2949,9 @@
       <c r="L47" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M47" s="7"/>
+      <c r="M47" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
@@ -2917,7 +2991,9 @@
       <c r="L48" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="M48" s="7"/>
+      <c r="M48" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
@@ -2957,7 +3033,9 @@
       <c r="L49" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M49" s="7"/>
+      <c r="M49" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
@@ -2997,7 +3075,9 @@
       <c r="L50" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M50" s="7"/>
+      <c r="M50" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
@@ -3037,7 +3117,9 @@
       <c r="L51" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M51" s="7"/>
+      <c r="M51" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
@@ -3077,7 +3159,9 @@
       <c r="L52" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M52" s="7"/>
+      <c r="M52" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
@@ -3117,7 +3201,9 @@
       <c r="L53" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M53" s="7"/>
+      <c r="M53" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
@@ -3157,7 +3243,9 @@
       <c r="L54" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M54" s="7"/>
+      <c r="M54" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
@@ -3197,7 +3285,9 @@
       <c r="L55" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M55" s="7"/>
+      <c r="M55" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
@@ -3257,7 +3347,9 @@
       <c r="L58" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="M58" s="10"/>
+      <c r="M58" s="10" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/FullStack268-S02.xlsx
+++ b/FullStack268-S02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RACH-THU\Desktop\fullstack-268-S02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084FBCCB-B665-4A61-885F-F8CECACC0567}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4E7398-3B20-4DB6-8104-D8D595693C94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="113">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,7 +1440,9 @@
       <c r="M11" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N11" s="7"/>
+      <c r="N11" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -1482,7 +1484,9 @@
       <c r="M12" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N12" s="7"/>
+      <c r="N12" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -1524,7 +1528,9 @@
       <c r="M13" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -1566,7 +1572,9 @@
       <c r="M14" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N14" s="7"/>
+      <c r="N14" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -1608,7 +1616,9 @@
       <c r="M15" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="N15" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -1650,7 +1660,9 @@
       <c r="M16" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -1692,7 +1704,9 @@
       <c r="M17" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="N17" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -1734,7 +1748,9 @@
       <c r="M18" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -1776,7 +1792,9 @@
       <c r="M19" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N19" s="7"/>
+      <c r="N19" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -1818,7 +1836,9 @@
       <c r="M20" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N20" s="7"/>
+      <c r="N20" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -1860,7 +1880,9 @@
       <c r="M21" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N21" s="7"/>
+      <c r="N21" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -1902,7 +1924,9 @@
       <c r="M22" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N22" s="7"/>
+      <c r="N22" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -1944,7 +1968,9 @@
       <c r="M23" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N23" s="7"/>
+      <c r="N23" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -1986,7 +2012,9 @@
       <c r="M24" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N24" s="7"/>
+      <c r="N24" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -2028,7 +2056,9 @@
       <c r="M25" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N25" s="7"/>
+      <c r="N25" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -2070,7 +2100,9 @@
       <c r="M26" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N26" s="7"/>
+      <c r="N26" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
@@ -2112,7 +2144,9 @@
       <c r="M27" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N27" s="7"/>
+      <c r="N27" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -2154,7 +2188,9 @@
       <c r="M28" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N28" s="7"/>
+      <c r="N28" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
@@ -2196,7 +2232,9 @@
       <c r="M29" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N29" s="7"/>
+      <c r="N29" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -2238,7 +2276,9 @@
       <c r="M30" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N30" s="7"/>
+      <c r="N30" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
@@ -2280,7 +2320,9 @@
       <c r="M31" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N31" s="7"/>
+      <c r="N31" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
@@ -2322,7 +2364,9 @@
       <c r="M32" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N32" s="7"/>
+      <c r="N32" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
@@ -2364,7 +2408,9 @@
       <c r="M33" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N33" s="7"/>
+      <c r="N33" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
@@ -2406,7 +2452,9 @@
       <c r="M34" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N34" s="7"/>
+      <c r="N34" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
@@ -2448,7 +2496,9 @@
       <c r="M35" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N35" s="7"/>
+      <c r="N35" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
@@ -2490,7 +2540,9 @@
       <c r="M36" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N36" s="7"/>
+      <c r="N36" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O36" s="7"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
@@ -2532,7 +2584,9 @@
       <c r="M37" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N37" s="7"/>
+      <c r="N37" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
@@ -2574,7 +2628,9 @@
       <c r="M38" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N38" s="7"/>
+      <c r="N38" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
@@ -2616,7 +2672,9 @@
       <c r="M39" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N39" s="7"/>
+      <c r="N39" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
@@ -2658,7 +2716,9 @@
       <c r="M40" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N40" s="7"/>
+      <c r="N40" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
@@ -2700,7 +2760,9 @@
       <c r="M41" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N41" s="7"/>
+      <c r="N41" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
@@ -2742,7 +2804,9 @@
       <c r="M42" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N42" s="7"/>
+      <c r="N42" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
@@ -2784,7 +2848,9 @@
       <c r="M43" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N43" s="7"/>
+      <c r="N43" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
@@ -2826,7 +2892,9 @@
       <c r="M44" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N44" s="7"/>
+      <c r="N44" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
@@ -2868,7 +2936,9 @@
       <c r="M45" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N45" s="7"/>
+      <c r="N45" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
@@ -2910,7 +2980,9 @@
       <c r="M46" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N46" s="7"/>
+      <c r="N46" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
@@ -2952,7 +3024,9 @@
       <c r="M47" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="N47" s="7"/>
+      <c r="N47" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
@@ -2994,7 +3068,9 @@
       <c r="M48" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N48" s="7"/>
+      <c r="N48" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
@@ -3036,7 +3112,9 @@
       <c r="M49" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N49" s="7"/>
+      <c r="N49" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="O49" s="7"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
@@ -3078,7 +3156,9 @@
       <c r="M50" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N50" s="7"/>
+      <c r="N50" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
@@ -3120,7 +3200,9 @@
       <c r="M51" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N51" s="7"/>
+      <c r="N51" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
@@ -3162,7 +3244,9 @@
       <c r="M52" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N52" s="7"/>
+      <c r="N52" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
@@ -3204,7 +3288,9 @@
       <c r="M53" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N53" s="7"/>
+      <c r="N53" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O53" s="7"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
@@ -3246,7 +3332,9 @@
       <c r="M54" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N54" s="7"/>
+      <c r="N54" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O54" s="7"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
@@ -3288,7 +3376,9 @@
       <c r="M55" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N55" s="7"/>
+      <c r="N55" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
@@ -3348,6 +3438,9 @@
         <v>109</v>
       </c>
       <c r="M58" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="N58" s="10" t="s">
         <v>109</v>
       </c>
     </row>
